--- a/Chapter2/IntroToMultiplicity.xlsx
+++ b/Chapter2/IntroToMultiplicity.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25540" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="flip" sheetId="1" r:id="rId1"/>
@@ -182,304 +182,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
                 <c:pt idx="0">
-                  <c:v>1.68139109366575E96</c:v>
+                  <c:v>2.77216764217237E81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.42802553215916E97</c:v>
+                  <c:v>1.85429273723905E83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.10690050332205E99</c:v>
+                  <c:v>6.19103543260399E84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.50194814137391E100</c:v>
+                  <c:v>1.37550771519448E86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.35333717498697E101</c:v>
+                  <c:v>2.28759479897758E87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.31674710050354E102</c:v>
+                  <c:v>3.03730552835098E88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.55620345948843E103</c:v>
+                  <c:v>3.35326106375484E89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.50317425625351E104</c:v>
+                  <c:v>3.1658969887152E90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5366265180847E105</c:v>
+                  <c:v>2.60901896103409E91</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.35603439899655E105</c:v>
+                  <c:v>1.90630724850509E92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.07495944191065E106</c:v>
+                  <c:v>1.2502088813558E93</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.79987692105892E107</c:v>
+                  <c:v>7.43282411375423E93</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.25942626730358E107</c:v>
+                  <c:v>4.03880220000552E94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.69194705710228E108</c:v>
+                  <c:v>2.01950934986071E95</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.23102718637349E108</c:v>
+                  <c:v>9.34653540516202E95</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.94178050801762E109</c:v>
+                  <c:v>4.02371082097314E96</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.75016907292026E109</c:v>
+                  <c:v>1.61825077582051E97</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.43838224019452E110</c:v>
+                  <c:v>6.10300188661139E97</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.38710042584984E110</c:v>
+                  <c:v>2.16550762371469E98</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.57723176146556E111</c:v>
+                  <c:v>7.25053648277277E98</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.68138344955757E111</c:v>
+                  <c:v>2.29673690478404E99</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.14076500970137E111</c:v>
+                  <c:v>6.8992267493086E99</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.70911034517047E112</c:v>
+                  <c:v>1.96948331942739E100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.41309592168975E112</c:v>
+                  <c:v>5.35293881010903E100</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.49448914797592E112</c:v>
+                  <c:v>1.38761039112896E101</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.17932995472152E113</c:v>
+                  <c:v>3.43602607979336E101</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.04660561352587E113</c:v>
+                  <c:v>8.13909883443472E101</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.39861307522656E113</c:v>
+                  <c:v>1.84667329951277E102</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.40691410038204E113</c:v>
+                  <c:v>4.01801775817045E102</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.24982822491603E113</c:v>
+                  <c:v>8.39289725386513E102</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.2084140280082E114</c:v>
+                  <c:v>1.68469279568633E103</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.70080128078783E114</c:v>
+                  <c:v>3.25261470326778E103</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.30206110856634E114</c:v>
+                  <c:v>6.04517557782009E103</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.99870498296941E114</c:v>
+                  <c:v>1.08238213500953E104</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.76187588308707E114</c:v>
+                  <c:v>1.8683179466645E104</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.5478208327512E114</c:v>
+                  <c:v>3.11097599658077E104</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.30127924452645E114</c:v>
+                  <c:v>5.00001666117121E104</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.96162025979656E114</c:v>
+                  <c:v>7.76079042753366E104</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.4708456018481E114</c:v>
+                  <c:v>1.1638847114655E105</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.78200139930893E114</c:v>
+                  <c:v>1.68722691839914E105</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.8663054444809E114</c:v>
+                  <c:v>2.36520011955203E105</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.71749428633229E114</c:v>
+                  <c:v>3.20735302020428E105</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.35249077263626E114</c:v>
+                  <c:v>4.20868886990445E105</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.80832261642385E114</c:v>
+                  <c:v>5.34550330087584E105</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.13604932074098E114</c:v>
+                  <c:v>6.57320367723999E105</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.39305026094553E114</c:v>
+                  <c:v>7.8271246227283E105</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.63524639316145E114</c:v>
+                  <c:v>9.02691751893734E105</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.9106511413873E114</c:v>
+                  <c:v>1.00843976386817E106</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.25516892115892E114</c:v>
+                  <c:v>1.09139260489403E106</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.69095054405869E114</c:v>
+                  <c:v>1.1443693822842E106</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.22705034051436E114</c:v>
+                  <c:v>1.16258774285016E106</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.61741067275101E113</c:v>
+                  <c:v>1.1443693822842E106</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.85684868833801E113</c:v>
+                  <c:v>1.09139260489403E106</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.85212559045928E113</c:v>
+                  <c:v>1.00843976386817E106</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.45159630679465E113</c:v>
+                  <c:v>9.02691751893734E105</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.5095889986081E113</c:v>
+                  <c:v>7.8271246227283E105</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.99217906926285E112</c:v>
+                  <c:v>6.57320367723999E105</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.18070201197774E112</c:v>
+                  <c:v>5.34550330087584E105</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.88626426368048E112</c:v>
+                  <c:v>4.20868886990445E105</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.55452853328901E112</c:v>
+                  <c:v>3.20735302020428E105</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.09193063480198E111</c:v>
+                  <c:v>2.36520011955203E105</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.06963966352051E111</c:v>
+                  <c:v>1.68722691839914E105</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.97675425343459E111</c:v>
+                  <c:v>1.1638847114655E105</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>9.26973074617059E110</c:v>
+                  <c:v>7.76079042753366E104</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.19474283347219E110</c:v>
+                  <c:v>5.00001666117121E104</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.83085354256348E110</c:v>
+                  <c:v>3.11097599658077E104</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.70330548324997E109</c:v>
+                  <c:v>1.8683179466645E104</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.12261641300313E109</c:v>
+                  <c:v>1.08238213500953E104</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.21870008925277E109</c:v>
+                  <c:v>6.04517557782009E103</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.57619508972887E108</c:v>
+                  <c:v>3.25261470326778E103</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.65198661702377E108</c:v>
+                  <c:v>1.68469279568633E103</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.728452244485E107</c:v>
+                  <c:v>8.39289725386513E102</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.90633071601489E107</c:v>
+                  <c:v>4.01801775817045E102</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.08211416914641E106</c:v>
+                  <c:v>1.84667329951277E102</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.85836774750365E106</c:v>
+                  <c:v>8.13909883443472E101</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.43138947003735E105</c:v>
+                  <c:v>3.43602607979336E101</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.5164393521161E105</c:v>
+                  <c:v>1.38761039112896E101</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.03879790455431E104</c:v>
+                  <c:v>5.35293881010903E100</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.02449360765709E104</c:v>
+                  <c:v>1.96948331942739E100</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.47083990079687E103</c:v>
+                  <c:v>6.8992267493086E99</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.65494178858158E102</c:v>
+                  <c:v>2.29673690478404E99</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.22557660962332E102</c:v>
+                  <c:v>7.25053648277277E98</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.5093394380959E101</c:v>
+                  <c:v>2.16550762371469E98</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.84109573477816E100</c:v>
+                  <c:v>6.10300188661139E97</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8.77430363924718E99</c:v>
+                  <c:v>1.61825077582051E97</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.48909190426664E99</c:v>
+                  <c:v>4.02371082097314E96</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.35737960699891E98</c:v>
+                  <c:v>9.34653540516202E95</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.46625094430012E97</c:v>
+                  <c:v>2.01950934986071E95</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.7102936601048E96</c:v>
+                  <c:v>4.03880220000552E94</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.88127276611229E95</c:v>
+                  <c:v>7.43282411375423E93</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6.70127818045554E94</c:v>
+                  <c:v>1.2502088813558E93</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.91123678769553E93</c:v>
+                  <c:v>1.90630724850509E92</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.3878208452056E92</c:v>
+                  <c:v>2.60901896103409E91</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.22641921277724E91</c:v>
+                  <c:v>3.1658969887152E90</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.72666729432837E90</c:v>
+                  <c:v>3.35326106375484E89</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.26879762112001E89</c:v>
+                  <c:v>3.03730552835098E88</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.14668191171602E88</c:v>
+                  <c:v>2.28759479897758E87</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.6193439606402E86</c:v>
+                  <c:v>1.37550771519448E86</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.39067288448791E85</c:v>
+                  <c:v>6.19103543260399E84</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.78143910585857E83</c:v>
+                  <c:v>1.85429273723905E83</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>2.77216764217237E81</c:v>
@@ -499,11 +499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2019989912"/>
-        <c:axId val="2021977896"/>
+        <c:axId val="2139675528"/>
+        <c:axId val="2129980808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2019989912"/>
+        <c:axId val="2139675528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -512,7 +512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2021977896"/>
+        <c:crossAx val="2129980808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -520,7 +520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2021977896"/>
+        <c:axId val="2129980808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,7 +531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2019989912"/>
+        <c:crossAx val="2139675528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -903,11 +903,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2073993400"/>
-        <c:axId val="2077799160"/>
+        <c:axId val="2139253384"/>
+        <c:axId val="2139256328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2073993400"/>
+        <c:axId val="2139253384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,7 +916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077799160"/>
+        <c:crossAx val="2139256328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -924,7 +924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2077799160"/>
+        <c:axId val="2139256328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,13 +935,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073993400"/>
+        <c:crossAx val="2139253384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2553,7 +2554,7 @@
   <dimension ref="A2:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2571,15 +2572,15 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E3">
         <f>MAX(E7:E108)</f>
-        <v>6.8663054444809039E+114</v>
+        <v>1.1625877428501657E+106</v>
       </c>
       <c r="F3">
         <f>E3/E5</f>
-        <v>7.4136074857153469E-2</v>
+        <v>7.1177880261523135E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2595,13 +2596,13 @@
       </c>
       <c r="F4">
         <f>E4/E5</f>
-        <v>2.9931326169281278E-35</v>
+        <v>1.6972225770734314E-26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="E5">
         <f>SUM(E7:E108)</f>
-        <v>9.2617601588848716E+115</v>
+        <v>1.6333553887507796E+107</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2635,11 +2636,11 @@
       </c>
       <c r="D7">
         <f>COMBIN(NB-1+C7,C7)</f>
-        <v>1.6813910936657534E+96</v>
+        <v>2.7721676421723747E+81</v>
       </c>
       <c r="E7">
         <f>B7*D7</f>
-        <v>1.6813910936657534E+96</v>
+        <v>2.7721676421723747E+81</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2657,11 +2658,11 @@
       </c>
       <c r="D8">
         <f>COMBIN(NB-1+C8,C8)</f>
-        <v>4.214012766079582E+95</v>
+        <v>9.2714636861952338E+80</v>
       </c>
       <c r="E8">
         <f>B8*D8</f>
-        <v>8.4280255321591637E+97</v>
+        <v>1.8542927372390468E+83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2679,11 +2680,11 @@
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D72" si="3">COMBIN(NB-1+C9,C9)</f>
-        <v>1.0482092056328608E+95</v>
+        <v>3.080117130648752E+80</v>
       </c>
       <c r="E9">
         <f t="shared" ref="E9:E72" si="4">B9*D9</f>
-        <v>2.10690050332205E+99</v>
+        <v>6.1910354326039916E+84</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2701,11 +2702,11 @@
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>2.5875189458947192E+94</v>
+        <v>1.0163349454665916E+80</v>
       </c>
       <c r="E10">
         <f t="shared" si="4"/>
-        <v>3.501948141373913E+100</v>
+        <v>1.375507715194485E+86</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2723,11 +2724,11 @@
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>6.3381145896916107E+93</v>
+        <v>3.3305570848060607E+79</v>
       </c>
       <c r="E11">
         <f t="shared" si="4"/>
-        <v>4.3533371749869778E+101</v>
+        <v>2.2875947989775851E+87</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2745,11 +2746,11 @@
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>1.5404025331908725E+93</v>
+        <v>1.0838423055640061E+79</v>
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
-        <v>4.3167471005035429E+102</v>
+        <v>3.0373055283509847E+88</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2767,11 +2768,11 @@
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>3.7141685444957584E+92</v>
+        <v>3.5022115315843739E+78</v>
       </c>
       <c r="E13">
         <f t="shared" si="4"/>
-        <v>3.5562034594884304E+103</v>
+        <v>3.3532610637548431E+89</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2789,11 +2790,11 @@
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>8.8837619130432895E+91</v>
+        <v>1.1235763957984E+78</v>
       </c>
       <c r="E14">
         <f t="shared" si="4"/>
-        <v>2.5031742562535066E+104</v>
+        <v>3.1658969887152018E+90</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2811,11 +2812,11 @@
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>2.1076271885536379E+91</v>
+        <v>3.5785138633305202E+77</v>
       </c>
       <c r="E15">
         <f t="shared" si="4"/>
-        <v>1.5366265180847021E+105</v>
+        <v>2.6090189610340902E+91</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2833,11 +2834,11 @@
       </c>
       <c r="D16">
         <f t="shared" si="3"/>
-        <v>4.9591227965967951E+90</v>
+        <v>1.1313514619464188E+77</v>
       </c>
       <c r="E16">
         <f t="shared" si="4"/>
-        <v>8.3560343989965511E+105</v>
+        <v>1.9063072485050918E+92</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2855,11 +2856,11 @@
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
-        <v>1.1571286525392522E+90</v>
+        <v>3.550102863349108E+76</v>
       </c>
       <c r="E17">
         <f t="shared" si="4"/>
-        <v>4.0749594419106511E+106</v>
+        <v>1.2502088813558052E+93</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2877,11 +2878,11 @@
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
-        <v>2.6771614069031542E+89</v>
+        <v>1.1055683657488571E+76</v>
       </c>
       <c r="E18">
         <f t="shared" si="4"/>
-        <v>1.7998769210589229E+107</v>
+        <v>7.4328241137542348E+93</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2899,11 +2900,11 @@
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>6.1409114745974412E+88</v>
+        <v>3.4165133524877871E+75</v>
       </c>
       <c r="E19">
         <f t="shared" si="4"/>
-        <v>7.2594262673035898E+107</v>
+        <v>4.0388022000055204E+94</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2921,11 +2922,11 @@
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>1.3963829709678935E+88</v>
+        <v>1.0475720383934678E+75</v>
       </c>
       <c r="E20">
         <f t="shared" si="4"/>
-        <v>2.6919470571022807E+108</v>
+        <v>2.019509349860707E+95</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2943,11 +2944,11 @@
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>3.1472880433732321E+87</v>
+        <v>3.1866701867213882E+74</v>
       </c>
       <c r="E21">
         <f t="shared" si="4"/>
-        <v>9.2310271863734951E+108</v>
+        <v>9.3465354051620271E+95</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2965,11 +2966,11 @@
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>7.0303057592233238E+86</v>
+        <v>9.6159170546680466E+73</v>
       </c>
       <c r="E22">
         <f t="shared" si="4"/>
-        <v>2.9417805080176245E+109</v>
+        <v>4.0237108209731441E+96</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2987,11 +2988,11 @@
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>1.5561874727447462E+86</v>
+        <v>2.878003343826704E+73</v>
       </c>
       <c r="E23">
         <f t="shared" si="4"/>
-        <v>8.7501690729202615E+109</v>
+        <v>1.618250775820515E+97</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3009,11 +3010,11 @@
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>3.413048243095527E+85</v>
+        <v>8.542483423372549E+72</v>
       </c>
       <c r="E24">
         <f t="shared" si="4"/>
-        <v>2.4383822401945206E+110</v>
+        <v>6.1030018866113962E+97</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3031,11 +3032,11 @@
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>7.4157854496578194E+84</v>
+        <v>2.514277035957169E+72</v>
       </c>
       <c r="E25">
         <f t="shared" si="4"/>
-        <v>6.3871004258498405E+110</v>
+        <v>2.1655076237146941E+98</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3053,11 +3054,11 @@
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
-        <v>1.5960483119998459E+84</v>
+        <v>7.3370361903376459E+71</v>
       </c>
       <c r="E26">
         <f t="shared" si="4"/>
-        <v>1.5772317614655581E+111</v>
+        <v>7.2505364827727784E+98</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3075,11 +3076,11 @@
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>3.4021029808417765E+83</v>
+        <v>2.1224997550619616E+71</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>3.6813834495575695E+111</v>
+        <v>2.296736904784041E+99</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3097,11 +3098,11 @@
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
-        <v>7.1812200123309271E+82</v>
+        <v>6.0860208030450511E+70</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
-        <v>8.1407650097013735E+111</v>
+        <v>6.8992267493086054E+99</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3119,11 +3120,11 @@
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>1.5008369867040826E+82</v>
+        <v>1.7294807318005719E+70</v>
       </c>
       <c r="E29">
         <f t="shared" si="4"/>
-        <v>1.70911034517047E+112</v>
+        <v>1.9694833194273862E+100</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3141,11 +3142,11 @@
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
-        <v>3.1051799724912057E+81</v>
+        <v>4.870017945142406E+69</v>
       </c>
       <c r="E30">
         <f t="shared" si="4"/>
-        <v>3.4130959216897544E+112</v>
+        <v>5.3529388101090297E+100</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3163,11 +3164,11 @@
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>6.3590121777080535E+80</v>
+        <v>1.3586644267245117E+69</v>
       </c>
       <c r="E31">
         <f t="shared" si="4"/>
-        <v>6.4944891479759272E+112</v>
+        <v>1.3876103911289574E+101</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3185,11 +3186,11 @@
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
-        <v>1.288759801348832E+80</v>
+        <v>3.7548544156750142E+68</v>
       </c>
       <c r="E32">
         <f t="shared" si="4"/>
-        <v>1.1793299547215164E+113</v>
+        <v>3.4360260797933627E+101</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3207,11 +3208,11 @@
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>2.5844113663412408E+79</v>
+        <v>1.0277886174292921E+68</v>
       </c>
       <c r="E33">
         <f t="shared" si="4"/>
-        <v>2.0466056135258728E+113</v>
+        <v>8.1390988344347252E+101</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3229,11 +3230,11 @@
       </c>
       <c r="D34">
         <f t="shared" si="3"/>
-        <v>5.1272504318834268E+78</v>
+        <v>2.7859471681233561E+67</v>
       </c>
       <c r="E34">
         <f t="shared" si="4"/>
-        <v>3.3986130752265613E+113</v>
+        <v>1.8466732995127713E+102</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3251,11 +3252,11 @@
       </c>
       <c r="D35">
         <f t="shared" si="3"/>
-        <v>1.0061539826007798E+78</v>
+        <v>7.4769905615075358E+66</v>
       </c>
       <c r="E35">
         <f t="shared" si="4"/>
-        <v>5.4069141003820412E+113</v>
+        <v>4.0180177581704477E+102</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3273,11 +3274,11 @@
       </c>
       <c r="D36">
         <f t="shared" si="3"/>
-        <v>1.9526438476349367E+77</v>
+        <v>1.9865067174484965E+66</v>
       </c>
       <c r="E36">
         <f t="shared" si="4"/>
-        <v>8.2498282249160316E+113</v>
+        <v>8.3928972538651304E+102</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3295,11 +3296,11 @@
       </c>
       <c r="D37">
         <f t="shared" si="3"/>
-        <v>3.7469652211373107E+76</v>
+        <v>5.2237769236608618E+65</v>
       </c>
       <c r="E37">
         <f t="shared" si="4"/>
-        <v>1.208414028008196E+114</v>
+        <v>1.6846927956863356E+103</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3317,11 +3318,11 @@
       </c>
       <c r="D38">
         <f t="shared" si="3"/>
-        <v>7.1080641051385305E+75</v>
+        <v>1.3593471548559863E+65</v>
       </c>
       <c r="E38">
         <f t="shared" si="4"/>
-        <v>1.7008012807878271E+114</v>
+        <v>3.2526147032677779E+103</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3339,11 +3340,11 @@
       </c>
       <c r="D39">
         <f t="shared" si="3"/>
-        <v>1.3327620197134745E+75</v>
+        <v>3.4998117046665323E+64</v>
       </c>
       <c r="E39">
         <f t="shared" si="4"/>
-        <v>2.3020611085663366E+114</v>
+        <v>6.0451755778200931E+103</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3361,11 +3362,11 @@
       </c>
       <c r="D40">
         <f t="shared" si="3"/>
-        <v>2.4694228158178819E+74</v>
+        <v>8.9133781242443506E+63</v>
       </c>
       <c r="E40">
         <f t="shared" si="4"/>
-        <v>2.9987049829694102E+114</v>
+        <v>1.0823821350095311E+104</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3383,11 +3384,11 @@
       </c>
       <c r="D41">
         <f t="shared" si="3"/>
-        <v>4.5205281054589642E+73</v>
+        <v>2.2450990012194419E+63</v>
       </c>
       <c r="E41">
         <f t="shared" si="4"/>
-        <v>3.7618758830870671E+114</v>
+        <v>1.8683179466645059E+104</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3405,11 +3406,11 @@
       </c>
       <c r="D42">
         <f t="shared" si="3"/>
-        <v>8.1741056153504543E+72</v>
+        <v>5.5915673237918169E+62</v>
       </c>
       <c r="E42">
         <f t="shared" si="4"/>
-        <v>4.547820832751206E+114</v>
+        <v>3.1109759965807681E+104</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3427,11 +3428,11 @@
       </c>
       <c r="D43">
         <f t="shared" si="3"/>
-        <v>1.4596617170268671E+72</v>
+        <v>1.3767116516911671E+62</v>
       </c>
       <c r="E43">
         <f t="shared" si="4"/>
-        <v>5.3012792445264562E+114</v>
+        <v>5.0000166611712157E+104</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3449,11 +3450,11 @@
       </c>
       <c r="D44">
         <f t="shared" si="3"/>
-        <v>2.5735082614247793E+71</v>
+        <v>3.3501728406172887E+61</v>
       </c>
       <c r="E44">
         <f t="shared" si="4"/>
-        <v>5.9616202597965602E+114</v>
+        <v>7.7607904275336608E+104</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3471,11 +3472,11 @@
       </c>
       <c r="D45">
         <f t="shared" si="3"/>
-        <v>4.4787574715403622E+70</v>
+        <v>8.0557591205682888E+60</v>
       </c>
       <c r="E45">
         <f t="shared" si="4"/>
-        <v>6.470845601848099E+114</v>
+        <v>1.163884711465499E+105</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3493,11 +3494,11 @@
       </c>
       <c r="D46">
         <f t="shared" si="3"/>
-        <v>7.6920488430887099E+69</v>
+        <v>1.9136286033533865E+60</v>
       </c>
       <c r="E46">
         <f t="shared" si="4"/>
-        <v>6.7820013993089377E+114</v>
+        <v>1.6872269183991454E+105</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3515,11 +3516,11 @@
       </c>
       <c r="D47">
         <f t="shared" si="3"/>
-        <v>1.3033749428566981E+69</v>
+        <v>4.4896671078675611E+59</v>
       </c>
       <c r="E47">
         <f t="shared" si="4"/>
-        <v>6.8663054444809039E+114</v>
+        <v>2.3652001195520331E+105</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3537,11 +3538,11 @@
       </c>
       <c r="D48">
         <f t="shared" si="3"/>
-        <v>2.1783425228802751E+68</v>
+        <v>1.0400773222859215E+59</v>
       </c>
       <c r="E48">
         <f t="shared" si="4"/>
-        <v>6.7174942863322918E+114</v>
+        <v>3.2073530202042829E+105</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3559,11 +3560,11 @@
       </c>
       <c r="D49">
         <f t="shared" si="3"/>
-        <v>3.5900058337971017E+67</v>
+        <v>2.3784713959251696E+58</v>
       </c>
       <c r="E49">
         <f t="shared" si="4"/>
-        <v>6.3524907726362646E+114</v>
+        <v>4.2086888699044578E+105</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3581,11 +3582,11 @@
       </c>
       <c r="D50">
         <f t="shared" si="3"/>
-        <v>5.8325024750765228E+66</v>
+        <v>5.3677564577299548E+57</v>
       </c>
       <c r="E50">
         <f t="shared" si="4"/>
-        <v>5.808322616423854E+114</v>
+        <v>5.3455033008758455E+105</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3603,11 +3604,11 @@
       </c>
       <c r="D51">
         <f t="shared" si="3"/>
-        <v>9.3385573336899381E+65</v>
+        <v>1.1951645237914352E+57</v>
       </c>
       <c r="E51">
         <f t="shared" si="4"/>
-        <v>5.136049320740986E+114</v>
+        <v>6.5732036772399979E+105</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3625,11 +3626,11 @@
       </c>
       <c r="D52">
         <f t="shared" si="3"/>
-        <v>1.4731245371454552E+65</v>
+        <v>2.6246750326400146E+56</v>
       </c>
       <c r="E52">
         <f t="shared" si="4"/>
-        <v>4.39305026094553E+114</v>
+        <v>7.827124622728308E+105</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3647,11 +3648,11 @@
       </c>
       <c r="D53">
         <f t="shared" si="3"/>
-        <v>2.2887528119491534E+64</v>
+        <v>5.6833514486299526E+55</v>
       </c>
       <c r="E53">
         <f t="shared" si="4"/>
-        <v>3.6352463931614477E+114</v>
+        <v>9.0269175189373446E+105</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3669,11 +3670,11 @@
       </c>
       <c r="D54">
         <f t="shared" si="3"/>
-        <v>3.5012082675709431E+63</v>
+        <v>1.2130473447668674E+55</v>
       </c>
       <c r="E54">
         <f t="shared" si="4"/>
-        <v>2.9106511413872984E+114</v>
+        <v>1.0084397638681666E+106</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3691,11 +3692,11 @@
       </c>
       <c r="D55">
         <f t="shared" si="3"/>
-        <v>5.2717056301494318E+62</v>
+        <v>2.5512503679620625E+54</v>
       </c>
       <c r="E55">
         <f t="shared" si="4"/>
-        <v>2.2551689211589212E+114</v>
+        <v>1.0913926048940285E+106</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3713,11 +3714,11 @@
       </c>
       <c r="D56">
         <f t="shared" si="3"/>
-        <v>7.8099342668880476E+61</v>
+        <v>5.2854589296425203E+53</v>
       </c>
       <c r="E56">
         <f t="shared" si="4"/>
-        <v>1.6909505440586921E+114</v>
+        <v>1.1443693822842014E+106</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3735,11 +3736,11 @@
       </c>
       <c r="D57">
         <f t="shared" si="3"/>
-        <v>1.1380189931751156E+61</v>
+        <v>1.078233621647074E+53</v>
       </c>
       <c r="E57">
         <f t="shared" si="4"/>
-        <v>1.2270503405143617E+114</v>
+        <v>1.1625877428501657E+106</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3757,11 +3758,11 @@
       </c>
       <c r="D58">
         <f t="shared" si="3"/>
-        <v>1.6303997036892776E+60</v>
+        <v>2.1651277543113938E+52</v>
       </c>
       <c r="E58">
         <f t="shared" si="4"/>
-        <v>8.6174106727510112E+113</v>
+        <v>1.1443693822842014E+106</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3779,11 +3780,11 @@
       </c>
       <c r="D59">
         <f t="shared" si="3"/>
-        <v>2.2956777437004194E+59</v>
+        <v>4.2778733855346094E+51</v>
       </c>
       <c r="E59">
         <f t="shared" si="4"/>
-        <v>5.8568486883380125E+113</v>
+        <v>1.0913926048940285E+106</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3801,11 +3802,11 @@
       </c>
       <c r="D60">
         <f t="shared" si="3"/>
-        <v>3.175577282352165E+58</v>
+        <v>8.3132762148040989E+50</v>
       </c>
       <c r="E60">
         <f t="shared" si="4"/>
-        <v>3.8521255904592784E+113</v>
+        <v>1.0084397638681666E+106</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3823,11 +3824,11 @@
       </c>
       <c r="D61">
         <f t="shared" si="3"/>
-        <v>4.3136454413454271E+57</v>
+        <v>1.5883088703081002E+50</v>
       </c>
       <c r="E61">
         <f t="shared" si="4"/>
-        <v>2.4515963067946525E+113</v>
+        <v>9.0269175189373446E+105</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3845,11 +3846,11 @@
       </c>
       <c r="D62">
         <f t="shared" si="3"/>
-        <v>5.7515272551272362E+56</v>
+        <v>2.9821309401703108E+49</v>
       </c>
       <c r="E62">
         <f t="shared" si="4"/>
-        <v>1.5095889986081013E+113</v>
+        <v>7.827124622728308E+105</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3867,11 +3868,11 @@
       </c>
       <c r="D63">
         <f t="shared" si="3"/>
-        <v>7.5238001883931872E+55</v>
+        <v>5.4998316519534416E+48</v>
       </c>
       <c r="E63">
         <f t="shared" si="4"/>
-        <v>8.9921790692628533E+112</v>
+        <v>6.5732036772399979E+105</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3889,11 +3890,11 @@
       </c>
       <c r="D64">
         <f t="shared" si="3"/>
-        <v>9.6515221075597741E+54</v>
+        <v>9.9585429088868906E+47</v>
       </c>
       <c r="E64">
         <f t="shared" si="4"/>
-        <v>5.1807020119777401E+112</v>
+        <v>5.3455033008758455E+105</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3911,11 +3912,11 @@
       </c>
       <c r="D65">
         <f t="shared" si="3"/>
-        <v>1.2134954696639483E+54</v>
+        <v>1.7694931614964311E+47</v>
       </c>
       <c r="E65">
         <f t="shared" si="4"/>
-        <v>2.8862642636804805E+112</v>
+        <v>4.2086888699044578E+105</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3933,11 +3934,11 @@
       </c>
       <c r="D66">
         <f t="shared" si="3"/>
-        <v>1.4946278511989981E+53</v>
+        <v>3.0837640158858963E+46</v>
       </c>
       <c r="E66">
         <f t="shared" si="4"/>
-        <v>1.5545285332890147E+112</v>
+        <v>3.2073530202042829E+105</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3955,11 +3956,11 @@
       </c>
       <c r="D67">
         <f t="shared" si="3"/>
-        <v>1.8023453499752624E+52</v>
+        <v>5.2680968604717392E+45</v>
       </c>
       <c r="E67">
         <f t="shared" si="4"/>
-        <v>8.0919306348019843E+111</v>
+        <v>2.3652001195520331E+105</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3977,11 +3978,11 @@
       </c>
       <c r="D68">
         <f t="shared" si="3"/>
-        <v>2.1266611799118146E+51</v>
+        <v>8.8168985112497717E+44</v>
       </c>
       <c r="E68">
         <f t="shared" si="4"/>
-        <v>4.0696396635205109E+111</v>
+        <v>1.6872269183991454E+105</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3999,11 +4000,11 @@
       </c>
       <c r="D69">
         <f t="shared" si="3"/>
-        <v>2.4538398229751707E+50</v>
+        <v>1.4447858904989124E+44</v>
       </c>
       <c r="E69">
         <f t="shared" si="4"/>
-        <v>1.9767542534345907E+111</v>
+        <v>1.163884711465499E+105</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4021,11 +4022,11 @@
       </c>
       <c r="D70">
         <f t="shared" si="3"/>
-        <v>2.7669410466782338E+49</v>
+        <v>2.3165343391965683E+43</v>
       </c>
       <c r="E70">
         <f t="shared" si="4"/>
-        <v>9.2697307461705925E+110</v>
+        <v>7.7607904275336608E+104</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4043,11 +4044,11 @@
       </c>
       <c r="D71">
         <f t="shared" si="3"/>
-        <v>3.0469291287825789E+48</v>
+        <v>3.6318546843336024E+42</v>
       </c>
       <c r="E71">
         <f t="shared" si="4"/>
-        <v>4.1947428334721928E+110</v>
+        <v>5.0000166611712157E+104</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4065,11 +4066,11 @@
       </c>
       <c r="D72">
         <f t="shared" si="3"/>
-        <v>3.2743118995872482E+47</v>
+        <v>5.5636922823833911E+41</v>
       </c>
       <c r="E72">
         <f t="shared" si="4"/>
-        <v>1.830853542563477E+110</v>
+        <v>3.1109759965807681E+104</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4087,11 +4088,11 @@
       </c>
       <c r="D73">
         <f t="shared" ref="D73:D107" si="8">COMBIN(NB-1+C73,C73)</f>
-        <v>3.4311651642381345E+46</v>
+        <v>8.3217619608298577E+40</v>
       </c>
       <c r="E73">
         <f t="shared" ref="E73:E107" si="9">B73*D73</f>
-        <v>7.7033054832499779E+109</v>
+        <v>1.8683179466645059E+104</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4109,11 +4110,11 @@
       </c>
       <c r="D74">
         <f t="shared" si="8"/>
-        <v>3.5032917592821787E+45</v>
+        <v>1.2143343633828977E+40</v>
       </c>
       <c r="E74">
         <f t="shared" si="9"/>
-        <v>3.1226164130031279E+109</v>
+        <v>1.0823821350095311E+104</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4131,11 +4132,11 @@
       </c>
       <c r="D75">
         <f t="shared" si="8"/>
-        <v>3.482187592057587E+44</v>
+        <v>1.7272859479153285E+39</v>
       </c>
       <c r="E75">
         <f t="shared" si="9"/>
-        <v>1.218700089252771E+109</v>
+        <v>6.0451755778200931E+103</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4153,11 +4154,11 @@
       </c>
       <c r="D76">
         <f t="shared" si="8"/>
-        <v>3.3664653457958546E+43</v>
+        <v>2.392777070705217E+38</v>
       </c>
       <c r="E76">
         <f t="shared" si="9"/>
-        <v>4.5761950897288692E+108</v>
+        <v>3.2526147032677779E+103</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4175,11 +4176,11 @@
       </c>
       <c r="D77">
         <f t="shared" si="8"/>
-        <v>3.1624371430203479E+42</v>
+        <v>3.2250473561679014E+37</v>
       </c>
       <c r="E77">
         <f t="shared" si="9"/>
-        <v>1.6519866170237678E+108</v>
+        <v>1.6846927956863356E+103</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4197,11 +4198,11 @@
       </c>
       <c r="D78">
         <f t="shared" si="8"/>
-        <v>2.8836812854288885E+41</v>
+        <v>4.2249528683422288E+36</v>
       </c>
       <c r="E78">
         <f t="shared" si="9"/>
-        <v>5.7284522444850026E+107</v>
+        <v>8.3928972538651304E+102</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4219,11 +4220,11 @@
       </c>
       <c r="D79">
         <f t="shared" si="8"/>
-        <v>2.5495962584584682E+40</v>
+        <v>5.37384356061073E+35</v>
       </c>
       <c r="E79">
         <f t="shared" si="9"/>
-        <v>1.9063307160148895E+107</v>
+        <v>4.0180177581704477E+102</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4241,11 +4242,11 @@
       </c>
       <c r="D80">
         <f t="shared" si="8"/>
-        <v>2.1831405271204013E+39</v>
+        <v>6.6285295020749096E+34</v>
       </c>
       <c r="E80">
         <f t="shared" si="9"/>
-        <v>6.0821141691464131E+106</v>
+        <v>1.8466732995127713E+102</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4263,11 +4264,11 @@
       </c>
       <c r="D81">
         <f t="shared" si="8"/>
-        <v>1.808122522461682E+38</v>
+        <v>7.9190396706204658E+33</v>
       </c>
       <c r="E81">
         <f t="shared" si="9"/>
-        <v>1.8583677475036562E+106</v>
+        <v>8.1390988344347252E+101</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4285,11 +4286,11 @@
       </c>
       <c r="D82">
         <f t="shared" si="8"/>
-        <v>1.4464980179693457E+37</v>
+        <v>9.1508902860503173E+32</v>
       </c>
       <c r="E82">
         <f t="shared" si="9"/>
-        <v>5.4313894700373537E+105</v>
+        <v>3.4360260797933627E+101</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4307,11 +4308,11 @@
       </c>
       <c r="D83">
         <f t="shared" si="8"/>
-        <v>1.1161250138652359E+36</v>
+        <v>1.0213047194252587E+32</v>
       </c>
       <c r="E83">
         <f t="shared" si="9"/>
-        <v>1.5164393521160985E+105</v>
+        <v>1.3876103911289574E+101</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4329,11 +4330,11 @@
       </c>
       <c r="D84">
         <f t="shared" si="8"/>
-        <v>8.2931889575125883E+34</v>
+        <v>1.0991620298747179E+31</v>
       </c>
       <c r="E84">
         <f t="shared" si="9"/>
-        <v>4.0387979045543147E+104</v>
+        <v>5.3529388101090297E+100</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4351,11 +4352,11 @@
       </c>
       <c r="D85">
         <f t="shared" si="8"/>
-        <v>5.9237063982232774E+33</v>
+        <v>1.1387714723927258E+30</v>
       </c>
       <c r="E85">
         <f t="shared" si="9"/>
-        <v>1.0244936076570924E+104</v>
+        <v>1.9694833194273862E+100</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4373,11 +4374,11 @@
       </c>
       <c r="D86">
         <f t="shared" si="8"/>
-        <v>4.0598610828944582E+32</v>
+        <v>1.133618660300451E+29</v>
       </c>
       <c r="E86">
         <f t="shared" si="9"/>
-        <v>2.4708399007968683E+103</v>
+        <v>6.8992267493086054E+99</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4395,11 +4396,11 @@
       </c>
       <c r="D87">
         <f t="shared" si="8"/>
-        <v>2.6642838356494884E+31</v>
+        <v>1.0820905393777032E+28</v>
       </c>
       <c r="E87">
         <f t="shared" si="9"/>
-        <v>5.6549417885815831E+102</v>
+        <v>2.296736904784041E+99</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4417,11 +4418,11 @@
       </c>
       <c r="D88">
         <f t="shared" si="8"/>
-        <v>1.6703973891219363E+30</v>
+        <v>9.8821053824447782E+26</v>
       </c>
       <c r="E88">
         <f t="shared" si="9"/>
-        <v>1.2255766096233162E+102</v>
+        <v>7.2505364827727784E+98</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4439,11 +4440,11 @@
       </c>
       <c r="D89">
         <f t="shared" si="8"/>
-        <v>9.9803617589046494E+28</v>
+        <v>8.6128441406628817E+25</v>
       </c>
       <c r="E89">
         <f t="shared" si="9"/>
-        <v>2.5093394380959058E+101</v>
+        <v>2.1655076237146941E+98</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4461,11 +4462,11 @@
       </c>
       <c r="D90">
         <f t="shared" si="8"/>
-        <v>5.6670823867597377E+27</v>
+        <v>7.1442946788908696E+24</v>
       </c>
       <c r="E90">
         <f t="shared" si="9"/>
-        <v>4.8410957347781597E+100</v>
+        <v>6.1030018866113962E+97</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4483,11 +4484,11 @@
       </c>
       <c r="D91">
         <f t="shared" si="8"/>
-        <v>3.0487468536365674E+26</v>
+        <v>5.6228245157937396E+23</v>
       </c>
       <c r="E91">
         <f t="shared" si="9"/>
-        <v>8.7743036392471844E+99</v>
+        <v>1.618250775820515E+97</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4505,11 +4506,11 @@
       </c>
       <c r="D92">
         <f t="shared" si="8"/>
-        <v>1.5485698304185739E+25</v>
+        <v>4.1844275466372018E+22</v>
       </c>
       <c r="E92">
         <f t="shared" si="9"/>
-        <v>1.4890919042666369E+99</v>
+        <v>4.0237108209731441E+96</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4527,11 +4528,11 @@
       </c>
       <c r="D93">
         <f t="shared" si="8"/>
-        <v>7.3976265784326782E+23</v>
+        <v>2.9330099625961697E+21</v>
       </c>
       <c r="E93">
         <f t="shared" si="9"/>
-        <v>2.3573796069989167E+98</v>
+        <v>9.3465354051620271E+95</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4549,11 +4550,11 @@
       </c>
       <c r="D94">
         <f t="shared" si="8"/>
-        <v>3.3088425590433704E+22</v>
+        <v>1.927799975415323E+20</v>
       </c>
       <c r="E94">
         <f t="shared" si="9"/>
-        <v>3.4662509443001223E+97</v>
+        <v>2.019509349860707E+95</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4571,11 +4572,11 @@
       </c>
       <c r="D95">
         <f t="shared" si="8"/>
-        <v>1.3786843996014043E+21</v>
+        <v>1.1821414943584528E+19</v>
       </c>
       <c r="E95">
         <f t="shared" si="9"/>
-        <v>4.7102936601048061E+96</v>
+        <v>4.0388022000055204E+94</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4593,11 +4594,11 @@
       </c>
       <c r="D96">
         <f t="shared" si="8"/>
-        <v>5.3196825708092768E+19</v>
+        <v>6.7230795887684518E+17</v>
       </c>
       <c r="E96">
         <f t="shared" si="9"/>
-        <v>5.8812727661122901E+95</v>
+        <v>7.4328241137542348E+93</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4615,11 +4616,11 @@
       </c>
       <c r="D97">
         <f t="shared" si="8"/>
-        <v>1.8876292993194209E+18</v>
+        <v>3.521613117926332E+16</v>
       </c>
       <c r="E97">
         <f t="shared" si="9"/>
-        <v>6.7012781804555466E+94</v>
+        <v>1.2502088813558052E+93</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4637,11 +4638,11 @@
       </c>
       <c r="D98">
         <f t="shared" si="8"/>
-        <v>6.1088326838816208E+16</v>
+        <v>1684982353074800</v>
       </c>
       <c r="E98">
         <f t="shared" si="9"/>
-        <v>6.9112367876955369E+93</v>
+        <v>1.9063072485050918E+92</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4659,11 +4660,11 @@
       </c>
       <c r="D99">
         <f t="shared" si="8"/>
-        <v>1785048511523850</v>
+        <v>72907890277275</v>
       </c>
       <c r="E99">
         <f t="shared" si="9"/>
-        <v>6.3878208452056069E+92</v>
+        <v>2.6090189610340902E+91</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4681,11 +4682,11 @@
       </c>
       <c r="D100">
         <f t="shared" si="8"/>
-        <v>46515922124400</v>
+        <v>2817696242600</v>
       </c>
       <c r="E100">
         <f t="shared" si="9"/>
-        <v>5.2264192127772401E+91</v>
+        <v>3.1658969887152018E+90</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4703,11 +4704,11 @@
       </c>
       <c r="D101">
         <f t="shared" si="8"/>
-        <v>1064089721800</v>
+        <v>95746959700</v>
       </c>
       <c r="E101">
         <f t="shared" si="9"/>
-        <v>3.7266672943283682E+90</v>
+        <v>3.3532610637548431E+89</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4725,11 +4726,11 @@
       </c>
       <c r="D102">
         <f t="shared" si="8"/>
-        <v>20932912560</v>
+        <v>2802350040</v>
       </c>
       <c r="E102">
         <f t="shared" si="9"/>
-        <v>2.2687976211200142E+89</v>
+        <v>3.0373055283509847E+88</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4747,11 +4748,11 @@
       </c>
       <c r="D103">
         <f t="shared" si="8"/>
-        <v>344291325</v>
+        <v>68685050</v>
       </c>
       <c r="E103">
         <f t="shared" si="9"/>
-        <v>1.146681911716016E+88</v>
+        <v>2.2875947989775851E+87</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4769,11 +4770,11 @@
       </c>
       <c r="D104">
         <f t="shared" si="8"/>
-        <v>4545100</v>
+        <v>1353400</v>
       </c>
       <c r="E104">
         <f t="shared" si="9"/>
-        <v>4.6193439606402057E+86</v>
+        <v>1.375507715194485E+86</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4791,11 +4792,11 @@
       </c>
       <c r="D105">
         <f t="shared" si="8"/>
-        <v>45150</v>
+        <v>20100</v>
       </c>
       <c r="E105">
         <f t="shared" si="9"/>
-        <v>1.3906728844879116E+85</v>
+        <v>6.1910354326039916E+84</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4813,11 +4814,11 @@
       </c>
       <c r="D106">
         <f t="shared" si="8"/>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E106">
         <f t="shared" si="9"/>
-        <v>2.7814391058585701E+83</v>
+        <v>1.8542927372390468E+83</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4858,8 +4859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7047,7 +7048,7 @@
         <v>96</v>
       </c>
       <c r="B103">
-        <f t="shared" ref="B103:B134" si="12">COMBIN(NA,A103)</f>
+        <f t="shared" ref="B103:B107" si="12">COMBIN(NA,A103)</f>
         <v>7.7218653725969813E+58</v>
       </c>
       <c r="C103">
@@ -7055,7 +7056,7 @@
         <v>4</v>
       </c>
       <c r="D103">
-        <f t="shared" ref="D103:D134" si="13">COMBIN(NB,C103)</f>
+        <f t="shared" ref="D103:D107" si="13">COMBIN(NB,C103)</f>
         <v>3921225</v>
       </c>
       <c r="E103">

--- a/Chapter2/IntroToMultiplicity.xlsx
+++ b/Chapter2/IntroToMultiplicity.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mglerner/coding/IntroToStatMechAndThermal/Chapter2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB4EF85-135D-0949-ACC2-AF5AAA939422}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25540" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-40680" yWindow="4160" windowWidth="31840" windowHeight="19380" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flip" sheetId="1" r:id="rId1"/>
@@ -14,6 +20,12 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Multiplicity!$A$1:$A$106</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Multiplicity!$B$1:$B$106</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Multiplicity!$A$1:$A$106</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Multiplicity!$B$1:$B$106</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Multiplicity!$A$1:$A$106</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Multiplicity!$B$1:$B$106</definedName>
     <definedName name="NA" localSheetId="3">TwoParamagnets!$B$2</definedName>
     <definedName name="NA">TwoStateEinstein!$B$2</definedName>
     <definedName name="NB" localSheetId="3">TwoParamagnets!$B$3</definedName>
@@ -21,7 +33,7 @@
     <definedName name="QT" localSheetId="3">TwoParamagnets!$B$4</definedName>
     <definedName name="QT">TwoStateEinstein!$B$4</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
   <si>
     <t>H</t>
   </si>
@@ -68,11 +80,14 @@
   <si>
     <t>Ω total</t>
   </si>
+  <si>
+    <t>Omega</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -146,11 +161,661 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Multiplicity!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Omega</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Multiplicity!$A$2:$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Multiplicity!$B$2:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BF4-5747-B17F-B632F4A892FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1205018127"/>
+        <c:axId val="1089486975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1205018127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089486975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1089486975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1205018127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -182,312 +847,317 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
                 <c:pt idx="0">
-                  <c:v>2.77216764217237E81</c:v>
+                  <c:v>2.7721676421723747E+81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.85429273723905E83</c:v>
+                  <c:v>1.8542927372390468E+83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.19103543260399E84</c:v>
+                  <c:v>6.1910354326039916E+84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.37550771519448E86</c:v>
+                  <c:v>1.375507715194485E+86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.28759479897758E87</c:v>
+                  <c:v>2.2875947989775851E+87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.03730552835098E88</c:v>
+                  <c:v>3.0373055283509847E+88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.35326106375484E89</c:v>
+                  <c:v>3.3532610637548431E+89</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1658969887152E90</c:v>
+                  <c:v>3.1658969887152018E+90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.60901896103409E91</c:v>
+                  <c:v>2.6090189610340902E+91</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.90630724850509E92</c:v>
+                  <c:v>1.9063072485050918E+92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2502088813558E93</c:v>
+                  <c:v>1.2502088813558052E+93</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.43282411375423E93</c:v>
+                  <c:v>7.4328241137542348E+93</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.03880220000552E94</c:v>
+                  <c:v>4.0388022000055204E+94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.01950934986071E95</c:v>
+                  <c:v>2.019509349860707E+95</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.34653540516202E95</c:v>
+                  <c:v>9.3465354051620271E+95</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.02371082097314E96</c:v>
+                  <c:v>4.0237108209731441E+96</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.61825077582051E97</c:v>
+                  <c:v>1.618250775820515E+97</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.10300188661139E97</c:v>
+                  <c:v>6.1030018866113962E+97</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.16550762371469E98</c:v>
+                  <c:v>2.1655076237146941E+98</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.25053648277277E98</c:v>
+                  <c:v>7.2505364827727784E+98</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.29673690478404E99</c:v>
+                  <c:v>2.296736904784041E+99</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.8992267493086E99</c:v>
+                  <c:v>6.8992267493086054E+99</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.96948331942739E100</c:v>
+                  <c:v>1.9694833194273862E+100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.35293881010903E100</c:v>
+                  <c:v>5.3529388101090297E+100</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.38761039112896E101</c:v>
+                  <c:v>1.3876103911289574E+101</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.43602607979336E101</c:v>
+                  <c:v>3.4360260797933627E+101</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.13909883443472E101</c:v>
+                  <c:v>8.1390988344347252E+101</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.84667329951277E102</c:v>
+                  <c:v>1.8466732995127713E+102</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.01801775817045E102</c:v>
+                  <c:v>4.0180177581704477E+102</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.39289725386513E102</c:v>
+                  <c:v>8.3928972538651304E+102</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.68469279568633E103</c:v>
+                  <c:v>1.6846927956863356E+103</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.25261470326778E103</c:v>
+                  <c:v>3.2526147032677779E+103</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.04517557782009E103</c:v>
+                  <c:v>6.0451755778200931E+103</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.08238213500953E104</c:v>
+                  <c:v>1.0823821350095311E+104</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.8683179466645E104</c:v>
+                  <c:v>1.8683179466645059E+104</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.11097599658077E104</c:v>
+                  <c:v>3.1109759965807681E+104</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.00001666117121E104</c:v>
+                  <c:v>5.0000166611712157E+104</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7.76079042753366E104</c:v>
+                  <c:v>7.7607904275336608E+104</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1638847114655E105</c:v>
+                  <c:v>1.163884711465499E+105</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.68722691839914E105</c:v>
+                  <c:v>1.6872269183991454E+105</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.36520011955203E105</c:v>
+                  <c:v>2.3652001195520331E+105</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.20735302020428E105</c:v>
+                  <c:v>3.2073530202042829E+105</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.20868886990445E105</c:v>
+                  <c:v>4.2086888699044578E+105</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.34550330087584E105</c:v>
+                  <c:v>5.3455033008758455E+105</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.57320367723999E105</c:v>
+                  <c:v>6.5732036772399979E+105</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.8271246227283E105</c:v>
+                  <c:v>7.827124622728308E+105</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.02691751893734E105</c:v>
+                  <c:v>9.0269175189373446E+105</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.00843976386817E106</c:v>
+                  <c:v>1.0084397638681666E+106</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.09139260489403E106</c:v>
+                  <c:v>1.0913926048940285E+106</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.1443693822842E106</c:v>
+                  <c:v>1.1443693822842014E+106</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.16258774285016E106</c:v>
+                  <c:v>1.1625877428501657E+106</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.1443693822842E106</c:v>
+                  <c:v>1.1443693822842014E+106</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.09139260489403E106</c:v>
+                  <c:v>1.0913926048940285E+106</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.00843976386817E106</c:v>
+                  <c:v>1.0084397638681666E+106</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.02691751893734E105</c:v>
+                  <c:v>9.0269175189373446E+105</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.8271246227283E105</c:v>
+                  <c:v>7.827124622728308E+105</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.57320367723999E105</c:v>
+                  <c:v>6.5732036772399979E+105</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.34550330087584E105</c:v>
+                  <c:v>5.3455033008758455E+105</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.20868886990445E105</c:v>
+                  <c:v>4.2086888699044578E+105</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.20735302020428E105</c:v>
+                  <c:v>3.2073530202042829E+105</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.36520011955203E105</c:v>
+                  <c:v>2.3652001195520331E+105</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.68722691839914E105</c:v>
+                  <c:v>1.6872269183991454E+105</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.1638847114655E105</c:v>
+                  <c:v>1.163884711465499E+105</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.76079042753366E104</c:v>
+                  <c:v>7.7607904275336608E+104</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.00001666117121E104</c:v>
+                  <c:v>5.0000166611712157E+104</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.11097599658077E104</c:v>
+                  <c:v>3.1109759965807681E+104</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.8683179466645E104</c:v>
+                  <c:v>1.8683179466645059E+104</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.08238213500953E104</c:v>
+                  <c:v>1.0823821350095311E+104</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.04517557782009E103</c:v>
+                  <c:v>6.0451755778200931E+103</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.25261470326778E103</c:v>
+                  <c:v>3.2526147032677779E+103</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.68469279568633E103</c:v>
+                  <c:v>1.6846927956863356E+103</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.39289725386513E102</c:v>
+                  <c:v>8.3928972538651304E+102</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.01801775817045E102</c:v>
+                  <c:v>4.0180177581704477E+102</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.84667329951277E102</c:v>
+                  <c:v>1.8466732995127713E+102</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.13909883443472E101</c:v>
+                  <c:v>8.1390988344347252E+101</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.43602607979336E101</c:v>
+                  <c:v>3.4360260797933627E+101</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.38761039112896E101</c:v>
+                  <c:v>1.3876103911289574E+101</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.35293881010903E100</c:v>
+                  <c:v>5.3529388101090297E+100</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.96948331942739E100</c:v>
+                  <c:v>1.9694833194273862E+100</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.8992267493086E99</c:v>
+                  <c:v>6.8992267493086054E+99</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.29673690478404E99</c:v>
+                  <c:v>2.296736904784041E+99</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7.25053648277277E98</c:v>
+                  <c:v>7.2505364827727784E+98</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.16550762371469E98</c:v>
+                  <c:v>2.1655076237146941E+98</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6.10300188661139E97</c:v>
+                  <c:v>6.1030018866113962E+97</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.61825077582051E97</c:v>
+                  <c:v>1.618250775820515E+97</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.02371082097314E96</c:v>
+                  <c:v>4.0237108209731441E+96</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.34653540516202E95</c:v>
+                  <c:v>9.3465354051620271E+95</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.01950934986071E95</c:v>
+                  <c:v>2.019509349860707E+95</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.03880220000552E94</c:v>
+                  <c:v>4.0388022000055204E+94</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.43282411375423E93</c:v>
+                  <c:v>7.4328241137542348E+93</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.2502088813558E93</c:v>
+                  <c:v>1.2502088813558052E+93</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.90630724850509E92</c:v>
+                  <c:v>1.9063072485050918E+92</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.60901896103409E91</c:v>
+                  <c:v>2.6090189610340902E+91</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.1658969887152E90</c:v>
+                  <c:v>3.1658969887152018E+90</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.35326106375484E89</c:v>
+                  <c:v>3.3532610637548431E+89</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.03730552835098E88</c:v>
+                  <c:v>3.0373055283509847E+88</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.28759479897758E87</c:v>
+                  <c:v>2.2875947989775851E+87</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.37550771519448E86</c:v>
+                  <c:v>1.375507715194485E+86</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.19103543260399E84</c:v>
+                  <c:v>6.1910354326039916E+84</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.85429273723905E83</c:v>
+                  <c:v>1.8542927372390468E+83</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.77216764217237E81</c:v>
+                  <c:v>2.7721676421723747E+81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-163D-2B4D-870E-54A0F188242D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -497,7 +1167,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2139675528"/>
         <c:axId val="2129980808"/>
@@ -538,7 +1207,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -547,14 +1215,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -586,312 +1254,317 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="133"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20000.0</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8505E7</c:v>
+                  <c:v>98505000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1237678E11</c:v>
+                  <c:v>212376779999.99997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5364424306375E14</c:v>
+                  <c:v>253644243063750</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.90902803099501E17</c:v>
+                  <c:v>1.909028030995008E+17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.82354007616181E19</c:v>
+                  <c:v>9.8235400761618088E+19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.65596075160993E22</c:v>
+                  <c:v>3.6559607516099338E+22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.02532561766636E25</c:v>
+                  <c:v>1.0253256176663553E+25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.23596934697018E27</c:v>
+                  <c:v>2.2359693469701844E+27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.88633832196888E29</c:v>
+                  <c:v>3.8863383219688792E+29</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4922632484023E31</c:v>
+                  <c:v>5.4922632484023009E+31</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.41565000703994E33</c:v>
+                  <c:v>6.4156500070399345E+33</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.28050377020525E35</c:v>
+                  <c:v>6.2805037702052465E+35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.21313856313618E37</c:v>
+                  <c:v>5.2131385631361802E+37</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.70619397581895E39</c:v>
+                  <c:v>3.7061939758189493E+39</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.27655860428723E41</c:v>
+                  <c:v>2.2765586042872273E+41</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.21752559819596E43</c:v>
+                  <c:v>1.2175255981959633E+43</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.70771491080201E44</c:v>
+                  <c:v>5.7077149108020049E+44</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.35961045232158E46</c:v>
+                  <c:v>2.3596104523215837E+46</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.64856221037168E47</c:v>
+                  <c:v>8.6485622103716827E+47</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.82402031359075E49</c:v>
+                  <c:v>2.8240203135907539E+49</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.2509238129105E50</c:v>
+                  <c:v>8.2509238129105045E+50</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.16551656367579E52</c:v>
+                  <c:v>2.1655165636757928E+52</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.1239279941558E53</c:v>
+                  <c:v>5.1239279941557958E+53</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.09660257359725E55</c:v>
+                  <c:v>1.0966025735972456E+55</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.12912851752424E56</c:v>
+                  <c:v>2.1291285175242393E+56</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.76058419638437E57</c:v>
+                  <c:v>3.7605841963843747E+57</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.05770635409927E58</c:v>
+                  <c:v>6.0577063540992746E+58</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.92017068836688E59</c:v>
+                  <c:v>8.9201706883668798E+59</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.20333102586069E61</c:v>
+                  <c:v>1.2033310258606913E+61</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.49007692068077E62</c:v>
+                  <c:v>1.4900769206807714E+62</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.69685419649009E63</c:v>
+                  <c:v>1.6968541964900873E+63</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.78006082100117E64</c:v>
+                  <c:v>1.7800608210011732E+64</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.72293257146904E65</c:v>
+                  <c:v>1.7229325714690398E+65</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.54093463289916E66</c:v>
+                  <c:v>1.5409346328991649E+66</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.2751947482904E67</c:v>
+                  <c:v>1.275194748290399E+67</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.77680356322574E67</c:v>
+                  <c:v>9.7768035632257394E+67</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.95276979160422E68</c:v>
+                  <c:v>6.9527697916042229E+68</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.59129650143806E69</c:v>
+                  <c:v>4.5912965014380597E+69</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.81819518378895E70</c:v>
+                  <c:v>2.818195183788949E+70</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.60943924832682E71</c:v>
+                  <c:v>1.6094392483268247E+71</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.5590417168673E71</c:v>
+                  <c:v>8.559041716867301E+71</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.24202586767832E72</c:v>
+                  <c:v>4.242025867678316E+72</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.96084139926928E73</c:v>
+                  <c:v>1.9608413992692767E+73</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.45921504395873E73</c:v>
+                  <c:v>8.4592150439587322E+73</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.40807222352307E74</c:v>
+                  <c:v>3.408072223523069E+74</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.28300265327378E75</c:v>
+                  <c:v>1.2830026532737797E+75</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.51556793202999E75</c:v>
+                  <c:v>4.5155679320299893E+75</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.48650766075656E76</c:v>
+                  <c:v>1.4865076607565616E+76</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.57903819819451E76</c:v>
+                  <c:v>4.579038198194509E+76</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.32036856926024E77</c:v>
+                  <c:v>1.3203685692602388E+77</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.56509279739978E77</c:v>
+                  <c:v>3.5650927973997839E+77</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.01616918217444E77</c:v>
+                  <c:v>9.0161691821744406E+77</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.13623843894524E78</c:v>
+                  <c:v>2.1362384389452449E+78</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.74280243172108E78</c:v>
+                  <c:v>4.7428024317210793E+78</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.86823528921557E78</c:v>
+                  <c:v>9.8682352892155748E+78</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.92444256055617E79</c:v>
+                  <c:v>1.9244425605561663E+79</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.51765674936381E79</c:v>
+                  <c:v>3.5176567493638135E+79</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.02680403711743E79</c:v>
+                  <c:v>6.0268040371174317E+79</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.67804281627108E79</c:v>
+                  <c:v>9.6780428162710781E+79</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.45651813413378E80</c:v>
+                  <c:v>1.456518134133782E+80</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.05405431975526E80</c:v>
+                  <c:v>2.0540543197552607E+80</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.71389792209539E80</c:v>
+                  <c:v>2.7138979220953911E+80</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.35858119314002E80</c:v>
+                  <c:v>3.3585811931400232E+80</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.89197953174285E80</c:v>
+                  <c:v>3.891979531742853E+80</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.2216720127376E80</c:v>
+                  <c:v>4.2216720127375995E+80</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.28468204277846E80</c:v>
+                  <c:v>4.2846820427784641E+80</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.06692679190195E80</c:v>
+                  <c:v>4.0669267919019537E+80</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.60821230182605E80</c:v>
+                  <c:v>3.6082123018260542E+80</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.99039799137053E80</c:v>
+                  <c:v>2.9903979913705312E+80</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.31353941010615E80</c:v>
+                  <c:v>2.3135394101061461E+80</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.66955072014026E80</c:v>
+                  <c:v>1.6695507201402584E+80</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.12285039988416E80</c:v>
+                  <c:v>1.1228503998841599E+80</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.0311432089167E79</c:v>
+                  <c:v>7.0311432089166969E+79</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.09493780487309E79</c:v>
+                  <c:v>4.0949378048730865E+79</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.21549180059356E79</c:v>
+                  <c:v>2.2154918005935572E+79</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.11204310989482E79</c:v>
+                  <c:v>1.1120431098948243E+79</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.1708907920652E78</c:v>
+                  <c:v>5.1708907920651915E+78</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.2237895987667E78</c:v>
+                  <c:v>2.2237895987667011E+78</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.82913964135342E77</c:v>
+                  <c:v>8.8291396413534172E+77</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.229680710143E77</c:v>
+                  <c:v>3.2296807101429971E+77</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.08600655645945E77</c:v>
+                  <c:v>1.0860065564594458E+77</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.34834943521536E76</c:v>
+                  <c:v>3.3483494352153603E+76</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.43858705590045E75</c:v>
+                  <c:v>9.4385870559004541E+75</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.42463911083062E75</c:v>
+                  <c:v>2.4246391108306196E+75</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.65508716357872E74</c:v>
+                  <c:v>5.6550871635787204E+74</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.19243217242326E74</c:v>
+                  <c:v>1.1924321724232565E+74</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.2619871659217E73</c:v>
+                  <c:v>2.2619871659217E+73</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.83803907461023E72</c:v>
+                  <c:v>3.8380390746102348E+72</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.78548853098654E71</c:v>
+                  <c:v>5.7854885309865442E+71</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.68510733496582E70</c:v>
+                  <c:v>7.6851073349658159E+70</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.9072427878089E69</c:v>
+                  <c:v>8.9072427878088987E+69</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.89797406482471E68</c:v>
+                  <c:v>8.8979740648247141E+68</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.54253347052253E67</c:v>
+                  <c:v>7.5425334705225293E+67</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.31529228504413E66</c:v>
+                  <c:v>5.3152922850441321E+66</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.02791715456616E65</c:v>
+                  <c:v>3.0279171545661596E+65</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.33873263502978E64</c:v>
+                  <c:v>1.3387326350297827E+64</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.30725098109332E62</c:v>
+                  <c:v>4.3072509810933221E+62</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.96519947090131E60</c:v>
+                  <c:v>8.9651994709013113E+60</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.05485146561032E58</c:v>
+                  <c:v>9.0548514656103191E+58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-175B-694D-8101-8A052D4E1139}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -901,7 +1574,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2139253384"/>
         <c:axId val="2139256328"/>
@@ -942,7 +1614,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -951,30 +1622,592 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>574675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7657022C-A3C6-B54A-BDEC-73AAD8FE2F35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1009,7 +2242,54 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1350,21 +2630,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +2659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +2674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +2689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1439,7 +2719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1454,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1469,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1496,1051 +2776,1055 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>B1</f>
-        <v>100</v>
+        <f>C1</f>
+        <v>10</v>
       </c>
       <c r="B2">
-        <f>FACT($B$1)/(FACT(A2)*FACT($B$1-A2))</f>
+        <f>FACT($C$1)/(FACT(A2)*FACT($C$1-A2))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3" si="0">IF(OR(A2=1,A2=""),"",A2-1)</f>
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="1">FACT($B$1)/(FACT(A3)*FACT($B$1-A3))</f>
-        <v>100.00000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <f>FACT($C$1)/(FACT(A3)*FACT($C$1-A3))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A11" si="2">IF(OR(A3=1,A3=""),"",A3-1)</f>
-        <v>98</v>
+        <f t="shared" ref="A4:A11" si="1">IF(OR(A3=1,A3=""),"",A3-1)</f>
+        <v>8</v>
       </c>
       <c r="B4">
-        <f t="shared" si="1"/>
-        <v>4950.0000000000009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <f>FACT($C$1)/(FACT(A4)*FACT($C$1-A4))</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" si="2"/>
-        <v>97</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="B5">
-        <f t="shared" si="1"/>
-        <v>161700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <f>FACT($C$1)/(FACT(A5)*FACT($C$1-A5))</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="2"/>
-        <v>96</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="B6">
-        <f t="shared" si="1"/>
-        <v>3921225.0000000033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <f>FACT($C$1)/(FACT(A6)*FACT($C$1-A6))</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="2"/>
-        <v>95</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="1"/>
-        <v>75287520.000000015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <f>FACT($C$1)/(FACT(A7)*FACT($C$1-A7))</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="2"/>
-        <v>94</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="B8">
-        <f t="shared" si="1"/>
-        <v>1192052400.0000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <f>FACT($C$1)/(FACT(A8)*FACT($C$1-A8))</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="2"/>
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
-        <v>16007560800.00001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <f>FACT($C$1)/(FACT(A9)*FACT($C$1-A9))</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="2"/>
-        <v>92</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="B10">
-        <f t="shared" si="1"/>
-        <v>186087894300.00006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <f>FACT($C$1)/(FACT(A10)*FACT($C$1-A10))</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="2"/>
-        <v>91</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
-        <v>1902231808400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+        <f>FACT($C$1)/(FACT(A11)*FACT($C$1-A11))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
         <f>IF(OR(A11=1,A11=""),"",A11-1)</f>
-        <v>90</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>17310309456440.016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <f t="shared" ref="A13:A76" si="3">IF(OR(A12=1,A12=""),"",A12-1)</f>
-        <v>89</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
-        <v>141629804643600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="1"/>
-        <v>1050421051106700.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>7110542499799204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <f t="shared" si="3"/>
-        <v>86</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>4.4186942677323584E+16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="1"/>
-        <v>2.533384713499888E+17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <f t="shared" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="1"/>
-        <v>1.3458606290468147E+18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <f t="shared" si="3"/>
-        <v>83</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="1"/>
-        <v>6.6501348729372017E+18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <f t="shared" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="1"/>
-        <v>3.0664510802988204E+19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="1"/>
-        <v>1.3234157293921228E+20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
-        <v>5.3598337040380985E+20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <f t="shared" si="3"/>
-        <v>79</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="1"/>
-        <v>2.0418414110621316E+21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="1"/>
-        <v>7.3320668851776604E+21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="1"/>
-        <v>2.4865270306254661E+22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <f t="shared" si="3"/>
-        <v>76</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="1"/>
-        <v>7.9776075565900367E+22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="1"/>
-        <v>2.4251926972033716E+23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="1"/>
-        <v>6.9957481650097247E+23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <f t="shared" si="3"/>
-        <v>73</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="1"/>
-        <v>1.9173532007804428E+24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <f t="shared" si="3"/>
-        <v>72</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="1"/>
-        <v>4.9988137020347265E+24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <f t="shared" si="3"/>
-        <v>71</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="1"/>
-        <v>1.241084781194829E+25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="1"/>
-        <v>2.9372339821610947E+25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <f t="shared" si="3"/>
-        <v>69</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="1"/>
-        <v>6.6324638306863454E+25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="1"/>
-        <v>1.4301250134917432E+26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="1"/>
-        <v>2.9469242702254069E+26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <f t="shared" si="3"/>
-        <v>66</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="1"/>
-        <v>5.807174297208895E+26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="1"/>
-        <v>1.0950671531879631E+27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="1"/>
-        <v>1.9772045821449332E+27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="1"/>
-        <v>3.4200295474939398E+27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <f t="shared" si="3"/>
-        <v>62</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="1"/>
-        <v>5.6700489866346885E+27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <f t="shared" si="3"/>
-        <v>61</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="1"/>
-        <v>9.0139240300346341E+27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="1"/>
-        <v>1.374623414580281E+28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <f t="shared" si="3"/>
-        <v>59</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="1"/>
-        <v>2.0116440213369981E+28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="1"/>
-        <v>2.8258808871162574E+28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <f t="shared" si="3"/>
-        <v>57</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="1"/>
-        <v>3.8116532895986722E+28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="1"/>
-        <v>4.9378235797073733E+28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="1"/>
-        <v>6.1448471214136243E+28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="1"/>
-        <v>7.3470998190815046E+28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="1"/>
-        <v>8.4413487283064058E+28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="1"/>
-        <v>9.3206558875049915E+28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="1"/>
-        <v>9.8913082887808057E+28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="1"/>
-        <v>1.0089134454556424E+29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="1"/>
-        <v>9.8913082887808057E+28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="1"/>
-        <v>9.3206558875049915E+28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="1"/>
-        <v>8.4413487283064058E+28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="1"/>
-        <v>7.3470998190815046E+28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="1"/>
-        <v>6.1448471214136243E+28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="1"/>
-        <v>4.9378235797073733E+28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="1"/>
-        <v>3.8116532895986722E+28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="1"/>
-        <v>2.8258808871162574E+28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="1"/>
-        <v>2.0116440213369981E+28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="1"/>
-        <v>1.374623414580281E+28</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="1"/>
-        <v>9.0139240300346341E+27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="1"/>
-        <v>5.6700489866346885E+27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="1"/>
-        <v>3.4200295474939398E+27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="1"/>
-        <v>1.9772045821449332E+27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="B67">
-        <f t="shared" ref="B67:B106" si="4">FACT($B$1)/(FACT(A67)*FACT($B$1-A67))</f>
-        <v>1.0950671531879631E+27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="4"/>
-        <v>5.807174297208895E+26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="4"/>
-        <v>2.9469242702254069E+26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="4"/>
-        <v>1.4301250134917432E+26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="4"/>
-        <v>6.6324638306863454E+25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="4"/>
-        <v>2.9372339821610947E+25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="4"/>
-        <v>1.241084781194829E+25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="4"/>
-        <v>4.9988137020347265E+24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="4"/>
-        <v>1.9173532007804428E+24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="4"/>
-        <v>6.9957481650097247E+23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <f t="shared" ref="A77:A100" si="5">IF(OR(A76=1,A76=""),"",A76-1)</f>
-        <v>25</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="4"/>
-        <v>2.4251926972033716E+23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="4"/>
-        <v>7.9776075565900367E+22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="4"/>
-        <v>2.4865270306254661E+22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="4"/>
-        <v>7.3320668851776604E+21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="4"/>
-        <v>2.0418414110621316E+21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="4"/>
-        <v>5.3598337040380985E+20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="4"/>
-        <v>1.3234157293921228E+20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
-        <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="4"/>
-        <v>3.0664510802988204E+19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="4"/>
-        <v>6.6501348729372017E+18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="4"/>
-        <v>1.3458606290468147E+18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="4"/>
-        <v>2.533384713499888E+17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="4"/>
-        <v>4.4186942677323584E+16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="4"/>
-        <v>7110542499799204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="4"/>
-        <v>1050421051106700.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="4"/>
-        <v>141629804643600</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="4"/>
-        <v>17310309456440.016</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="4"/>
-        <v>1902231808400</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="4"/>
-        <v>186087894300.00006</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="4"/>
-        <v>16007560800.00001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="4"/>
-        <v>1192052400.0000007</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="4"/>
-        <v>75287520.000000015</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="4"/>
-        <v>3921225.0000000033</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="4"/>
-        <v>161700</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="4"/>
-        <v>4950.0000000000009</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v/>
+      </c>
+      <c r="B12" t="e">
+        <f>FACT($C$1)/(FACT(A12)*FACT($C$1-A12))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" ref="A13:A76" si="2">IF(OR(A12=1,A12=""),"",A12-1)</f>
+        <v/>
+      </c>
+      <c r="B13" t="e">
+        <f>FACT($C$1)/(FACT(A13)*FACT($C$1-A13))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B14" t="e">
+        <f>FACT($C$1)/(FACT(A14)*FACT($C$1-A14))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B15" t="e">
+        <f>FACT($C$1)/(FACT(A15)*FACT($C$1-A15))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B16" t="e">
+        <f>FACT($C$1)/(FACT(A16)*FACT($C$1-A16))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B17" t="e">
+        <f>FACT($C$1)/(FACT(A17)*FACT($C$1-A17))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B18" t="e">
+        <f>FACT($C$1)/(FACT(A18)*FACT($C$1-A18))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B19" t="e">
+        <f>FACT($C$1)/(FACT(A19)*FACT($C$1-A19))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B20" t="e">
+        <f>FACT($C$1)/(FACT(A20)*FACT($C$1-A20))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B21" t="e">
+        <f>FACT($C$1)/(FACT(A21)*FACT($C$1-A21))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B22" t="e">
+        <f>FACT($C$1)/(FACT(A22)*FACT($C$1-A22))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B23" t="e">
+        <f>FACT($C$1)/(FACT(A23)*FACT($C$1-A23))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B24" t="e">
+        <f>FACT($C$1)/(FACT(A24)*FACT($C$1-A24))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B25" t="e">
+        <f>FACT($C$1)/(FACT(A25)*FACT($C$1-A25))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B26" t="e">
+        <f>FACT($C$1)/(FACT(A26)*FACT($C$1-A26))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B27" t="e">
+        <f>FACT($C$1)/(FACT(A27)*FACT($C$1-A27))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B28" t="e">
+        <f>FACT($C$1)/(FACT(A28)*FACT($C$1-A28))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B29" t="e">
+        <f>FACT($C$1)/(FACT(A29)*FACT($C$1-A29))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B30" t="e">
+        <f>FACT($C$1)/(FACT(A30)*FACT($C$1-A30))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B31" t="e">
+        <f>FACT($C$1)/(FACT(A31)*FACT($C$1-A31))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B32" t="e">
+        <f>FACT($C$1)/(FACT(A32)*FACT($C$1-A32))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B33" t="e">
+        <f>FACT($C$1)/(FACT(A33)*FACT($C$1-A33))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B34" t="e">
+        <f>FACT($C$1)/(FACT(A34)*FACT($C$1-A34))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B35" t="e">
+        <f>FACT($C$1)/(FACT(A35)*FACT($C$1-A35))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B36" t="e">
+        <f>FACT($C$1)/(FACT(A36)*FACT($C$1-A36))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B37" t="e">
+        <f>FACT($C$1)/(FACT(A37)*FACT($C$1-A37))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B38" t="e">
+        <f>FACT($C$1)/(FACT(A38)*FACT($C$1-A38))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B39" t="e">
+        <f>FACT($C$1)/(FACT(A39)*FACT($C$1-A39))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B40" t="e">
+        <f>FACT($C$1)/(FACT(A40)*FACT($C$1-A40))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B41" t="e">
+        <f>FACT($C$1)/(FACT(A41)*FACT($C$1-A41))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B42" t="e">
+        <f>FACT($C$1)/(FACT(A42)*FACT($C$1-A42))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B43" t="e">
+        <f>FACT($C$1)/(FACT(A43)*FACT($C$1-A43))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B44" t="e">
+        <f>FACT($C$1)/(FACT(A44)*FACT($C$1-A44))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B45" t="e">
+        <f>FACT($C$1)/(FACT(A45)*FACT($C$1-A45))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B46" t="e">
+        <f>FACT($C$1)/(FACT(A46)*FACT($C$1-A46))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B47" t="e">
+        <f>FACT($C$1)/(FACT(A47)*FACT($C$1-A47))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B48" t="e">
+        <f>FACT($C$1)/(FACT(A48)*FACT($C$1-A48))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B49" t="e">
+        <f>FACT($C$1)/(FACT(A49)*FACT($C$1-A49))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B50" t="e">
+        <f>FACT($C$1)/(FACT(A50)*FACT($C$1-A50))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B51" t="e">
+        <f>FACT($C$1)/(FACT(A51)*FACT($C$1-A51))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B52" t="e">
+        <f>FACT($C$1)/(FACT(A52)*FACT($C$1-A52))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B53" t="e">
+        <f>FACT($C$1)/(FACT(A53)*FACT($C$1-A53))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B54" t="e">
+        <f>FACT($C$1)/(FACT(A54)*FACT($C$1-A54))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B55" t="e">
+        <f>FACT($C$1)/(FACT(A55)*FACT($C$1-A55))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B56" t="e">
+        <f>FACT($C$1)/(FACT(A56)*FACT($C$1-A56))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B57" t="e">
+        <f>FACT($C$1)/(FACT(A57)*FACT($C$1-A57))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B58" t="e">
+        <f>FACT($C$1)/(FACT(A58)*FACT($C$1-A58))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B59" t="e">
+        <f>FACT($C$1)/(FACT(A59)*FACT($C$1-A59))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B60" t="e">
+        <f>FACT($C$1)/(FACT(A60)*FACT($C$1-A60))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B61" t="e">
+        <f>FACT($C$1)/(FACT(A61)*FACT($C$1-A61))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B62" t="e">
+        <f>FACT($C$1)/(FACT(A62)*FACT($C$1-A62))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B63" t="e">
+        <f>FACT($C$1)/(FACT(A63)*FACT($C$1-A63))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B64" t="e">
+        <f>FACT($C$1)/(FACT(A64)*FACT($C$1-A64))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B65" t="e">
+        <f>FACT($C$1)/(FACT(A65)*FACT($C$1-A65))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B66" t="e">
+        <f>FACT($C$1)/(FACT(A66)*FACT($C$1-A66))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B67" t="e">
+        <f>FACT($C$1)/(FACT(A67)*FACT($C$1-A67))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B68" t="e">
+        <f>FACT($C$1)/(FACT(A68)*FACT($C$1-A68))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B69" t="e">
+        <f>FACT($C$1)/(FACT(A69)*FACT($C$1-A69))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B70" t="e">
+        <f>FACT($C$1)/(FACT(A70)*FACT($C$1-A70))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B71" t="e">
+        <f>FACT($C$1)/(FACT(A71)*FACT($C$1-A71))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B72" t="e">
+        <f>FACT($C$1)/(FACT(A72)*FACT($C$1-A72))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B73" t="e">
+        <f>FACT($C$1)/(FACT(A73)*FACT($C$1-A73))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B74" t="e">
+        <f>FACT($C$1)/(FACT(A74)*FACT($C$1-A74))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B75" t="e">
+        <f>FACT($C$1)/(FACT(A75)*FACT($C$1-A75))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B76" t="e">
+        <f>FACT($C$1)/(FACT(A76)*FACT($C$1-A76))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="str">
+        <f t="shared" ref="A77:A100" si="3">IF(OR(A76=1,A76=""),"",A76-1)</f>
+        <v/>
+      </c>
+      <c r="B77" t="e">
+        <f>FACT($C$1)/(FACT(A77)*FACT($C$1-A77))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B78" t="e">
+        <f>FACT($C$1)/(FACT(A78)*FACT($C$1-A78))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B79" t="e">
+        <f>FACT($C$1)/(FACT(A79)*FACT($C$1-A79))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B80" t="e">
+        <f>FACT($C$1)/(FACT(A80)*FACT($C$1-A80))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B81" t="e">
+        <f>FACT($C$1)/(FACT(A81)*FACT($C$1-A81))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B82" t="e">
+        <f>FACT($C$1)/(FACT(A82)*FACT($C$1-A82))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B83" t="e">
+        <f>FACT($C$1)/(FACT(A83)*FACT($C$1-A83))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B84" t="e">
+        <f>FACT($C$1)/(FACT(A84)*FACT($C$1-A84))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B85" t="e">
+        <f>FACT($C$1)/(FACT(A85)*FACT($C$1-A85))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B86" t="e">
+        <f>FACT($C$1)/(FACT(A86)*FACT($C$1-A86))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B87" t="e">
+        <f>FACT($C$1)/(FACT(A87)*FACT($C$1-A87))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B88" t="e">
+        <f>FACT($C$1)/(FACT(A88)*FACT($C$1-A88))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B89" t="e">
+        <f>FACT($C$1)/(FACT(A89)*FACT($C$1-A89))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B90" t="e">
+        <f>FACT($C$1)/(FACT(A90)*FACT($C$1-A90))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B91" t="e">
+        <f>FACT($C$1)/(FACT(A91)*FACT($C$1-A91))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B92" t="e">
+        <f>FACT($C$1)/(FACT(A92)*FACT($C$1-A92))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B93" t="e">
+        <f>FACT($C$1)/(FACT(A93)*FACT($C$1-A93))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B94" t="e">
+        <f>FACT($C$1)/(FACT(A94)*FACT($C$1-A94))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B95" t="e">
+        <f>FACT($C$1)/(FACT(A95)*FACT($C$1-A95))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B96" t="e">
+        <f>FACT($C$1)/(FACT(A96)*FACT($C$1-A96))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B97" t="e">
+        <f>FACT($C$1)/(FACT(A97)*FACT($C$1-A97))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B98" t="e">
+        <f>FACT($C$1)/(FACT(A98)*FACT($C$1-A98))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B99" t="e">
+        <f>FACT($C$1)/(FACT(A99)*FACT($C$1-A99))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B100" t="e">
+        <f>FACT($C$1)/(FACT(A100)*FACT($C$1-A100))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B101">
-        <f t="shared" si="4"/>
+        <f>FACT($C$1)/(FACT(A101)*FACT($C$1-A101))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B102">
-        <f t="shared" si="4"/>
+        <f>FACT($C$1)/(FACT(A102)*FACT($C$1-A102))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B103">
-        <f t="shared" si="4"/>
+        <f>FACT($C$1)/(FACT(A103)*FACT($C$1-A103))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B104">
-        <f t="shared" si="4"/>
+        <f>FACT($C$1)/(FACT(A104)*FACT($C$1-A104))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B105">
-        <f t="shared" si="4"/>
+        <f>FACT($C$1)/(FACT(A105)*FACT($C$1-A105))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B106">
-        <f t="shared" si="4"/>
+        <f>FACT($C$1)/(FACT(A106)*FACT($C$1-A106))</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2550,16 +3834,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2567,7 +3851,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2583,7 +3867,7 @@
         <v>7.1177880261523135E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2599,13 +3883,13 @@
         <v>1.6972225770734314E-26</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E5">
         <f>SUM(E7:E108)</f>
         <v>1.6333553887507796E+107</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2622,7 +3906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2643,7 +3927,7 @@
         <v>2.7721676421723747E+81</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>A7+1</f>
         <v>1</v>
@@ -2665,7 +3949,7 @@
         <v>1.8542927372390468E+83</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ref="A9:A72" si="0">A8+1</f>
         <v>2</v>
@@ -2687,7 +3971,7 @@
         <v>6.1910354326039916E+84</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2709,7 +3993,7 @@
         <v>1.375507715194485E+86</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2731,7 +4015,7 @@
         <v>2.2875947989775851E+87</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2753,7 +4037,7 @@
         <v>3.0373055283509847E+88</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2775,7 +4059,7 @@
         <v>3.3532610637548431E+89</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2797,7 +4081,7 @@
         <v>3.1658969887152018E+90</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2819,7 +4103,7 @@
         <v>2.6090189610340902E+91</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2841,7 +4125,7 @@
         <v>1.9063072485050918E+92</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2863,7 +4147,7 @@
         <v>1.2502088813558052E+93</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2885,7 +4169,7 @@
         <v>7.4328241137542348E+93</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2907,7 +4191,7 @@
         <v>4.0388022000055204E+94</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2929,7 +4213,7 @@
         <v>2.019509349860707E+95</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2951,7 +4235,7 @@
         <v>9.3465354051620271E+95</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2973,7 +4257,7 @@
         <v>4.0237108209731441E+96</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2995,7 +4279,7 @@
         <v>1.618250775820515E+97</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3017,7 +4301,7 @@
         <v>6.1030018866113962E+97</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3039,7 +4323,7 @@
         <v>2.1655076237146941E+98</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3061,7 +4345,7 @@
         <v>7.2505364827727784E+98</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3083,7 +4367,7 @@
         <v>2.296736904784041E+99</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3105,7 +4389,7 @@
         <v>6.8992267493086054E+99</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3127,7 +4411,7 @@
         <v>1.9694833194273862E+100</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3149,7 +4433,7 @@
         <v>5.3529388101090297E+100</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3171,7 +4455,7 @@
         <v>1.3876103911289574E+101</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3193,7 +4477,7 @@
         <v>3.4360260797933627E+101</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3215,7 +4499,7 @@
         <v>8.1390988344347252E+101</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3237,7 +4521,7 @@
         <v>1.8466732995127713E+102</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3259,7 +4543,7 @@
         <v>4.0180177581704477E+102</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3281,7 +4565,7 @@
         <v>8.3928972538651304E+102</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3303,7 +4587,7 @@
         <v>1.6846927956863356E+103</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3325,7 +4609,7 @@
         <v>3.2526147032677779E+103</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3347,7 +4631,7 @@
         <v>6.0451755778200931E+103</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3369,7 +4653,7 @@
         <v>1.0823821350095311E+104</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3391,7 +4675,7 @@
         <v>1.8683179466645059E+104</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3413,7 +4697,7 @@
         <v>3.1109759965807681E+104</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3435,7 +4719,7 @@
         <v>5.0000166611712157E+104</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3457,7 +4741,7 @@
         <v>7.7607904275336608E+104</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3479,7 +4763,7 @@
         <v>1.163884711465499E+105</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3501,7 +4785,7 @@
         <v>1.6872269183991454E+105</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3523,7 +4807,7 @@
         <v>2.3652001195520331E+105</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3545,7 +4829,7 @@
         <v>3.2073530202042829E+105</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3567,7 +4851,7 @@
         <v>4.2086888699044578E+105</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3589,7 +4873,7 @@
         <v>5.3455033008758455E+105</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3611,7 +4895,7 @@
         <v>6.5732036772399979E+105</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3633,7 +4917,7 @@
         <v>7.827124622728308E+105</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3655,7 +4939,7 @@
         <v>9.0269175189373446E+105</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3677,7 +4961,7 @@
         <v>1.0084397638681666E+106</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3699,7 +4983,7 @@
         <v>1.0913926048940285E+106</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3721,7 +5005,7 @@
         <v>1.1443693822842014E+106</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3743,7 +5027,7 @@
         <v>1.1625877428501657E+106</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3765,7 +5049,7 @@
         <v>1.1443693822842014E+106</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3787,7 +5071,7 @@
         <v>1.0913926048940285E+106</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3809,7 +5093,7 @@
         <v>1.0084397638681666E+106</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3831,7 +5115,7 @@
         <v>9.0269175189373446E+105</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3853,7 +5137,7 @@
         <v>7.827124622728308E+105</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3875,7 +5159,7 @@
         <v>6.5732036772399979E+105</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3897,7 +5181,7 @@
         <v>5.3455033008758455E+105</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3919,7 +5203,7 @@
         <v>4.2086888699044578E+105</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3941,7 +5225,7 @@
         <v>3.2073530202042829E+105</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3963,7 +5247,7 @@
         <v>2.3652001195520331E+105</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3985,7 +5269,7 @@
         <v>1.6872269183991454E+105</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4007,7 +5291,7 @@
         <v>1.163884711465499E+105</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4029,7 +5313,7 @@
         <v>7.7607904275336608E+104</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4051,7 +5335,7 @@
         <v>5.0000166611712157E+104</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4073,7 +5357,7 @@
         <v>3.1109759965807681E+104</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" ref="A73:A107" si="5">A72+1</f>
         <v>66</v>
@@ -4095,7 +5379,7 @@
         <v>1.8683179466645059E+104</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="5"/>
         <v>67</v>
@@ -4117,7 +5401,7 @@
         <v>1.0823821350095311E+104</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="5"/>
         <v>68</v>
@@ -4139,7 +5423,7 @@
         <v>6.0451755778200931E+103</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="5"/>
         <v>69</v>
@@ -4161,7 +5445,7 @@
         <v>3.2526147032677779E+103</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="5"/>
         <v>70</v>
@@ -4183,7 +5467,7 @@
         <v>1.6846927956863356E+103</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="5"/>
         <v>71</v>
@@ -4205,7 +5489,7 @@
         <v>8.3928972538651304E+102</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="5"/>
         <v>72</v>
@@ -4227,7 +5511,7 @@
         <v>4.0180177581704477E+102</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="5"/>
         <v>73</v>
@@ -4249,7 +5533,7 @@
         <v>1.8466732995127713E+102</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="5"/>
         <v>74</v>
@@ -4271,7 +5555,7 @@
         <v>8.1390988344347252E+101</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="5"/>
         <v>75</v>
@@ -4293,7 +5577,7 @@
         <v>3.4360260797933627E+101</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="5"/>
         <v>76</v>
@@ -4315,7 +5599,7 @@
         <v>1.3876103911289574E+101</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="5"/>
         <v>77</v>
@@ -4337,7 +5621,7 @@
         <v>5.3529388101090297E+100</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="5"/>
         <v>78</v>
@@ -4359,7 +5643,7 @@
         <v>1.9694833194273862E+100</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="5"/>
         <v>79</v>
@@ -4381,7 +5665,7 @@
         <v>6.8992267493086054E+99</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="5"/>
         <v>80</v>
@@ -4403,7 +5687,7 @@
         <v>2.296736904784041E+99</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="5"/>
         <v>81</v>
@@ -4425,7 +5709,7 @@
         <v>7.2505364827727784E+98</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="5"/>
         <v>82</v>
@@ -4447,7 +5731,7 @@
         <v>2.1655076237146941E+98</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="5"/>
         <v>83</v>
@@ -4469,7 +5753,7 @@
         <v>6.1030018866113962E+97</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="5"/>
         <v>84</v>
@@ -4491,7 +5775,7 @@
         <v>1.618250775820515E+97</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="5"/>
         <v>85</v>
@@ -4513,7 +5797,7 @@
         <v>4.0237108209731441E+96</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="5"/>
         <v>86</v>
@@ -4535,7 +5819,7 @@
         <v>9.3465354051620271E+95</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="5"/>
         <v>87</v>
@@ -4557,7 +5841,7 @@
         <v>2.019509349860707E+95</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="5"/>
         <v>88</v>
@@ -4579,7 +5863,7 @@
         <v>4.0388022000055204E+94</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="5"/>
         <v>89</v>
@@ -4601,7 +5885,7 @@
         <v>7.4328241137542348E+93</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="5"/>
         <v>90</v>
@@ -4623,7 +5907,7 @@
         <v>1.2502088813558052E+93</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="5"/>
         <v>91</v>
@@ -4645,7 +5929,7 @@
         <v>1.9063072485050918E+92</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="5"/>
         <v>92</v>
@@ -4667,7 +5951,7 @@
         <v>2.6090189610340902E+91</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="5"/>
         <v>93</v>
@@ -4689,7 +5973,7 @@
         <v>3.1658969887152018E+90</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="5"/>
         <v>94</v>
@@ -4711,7 +5995,7 @@
         <v>3.3532610637548431E+89</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="5"/>
         <v>95</v>
@@ -4733,7 +6017,7 @@
         <v>3.0373055283509847E+88</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="5"/>
         <v>96</v>
@@ -4755,7 +6039,7 @@
         <v>2.2875947989775851E+87</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="5"/>
         <v>97</v>
@@ -4777,7 +6061,7 @@
         <v>1.375507715194485E+86</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="5"/>
         <v>98</v>
@@ -4799,7 +6083,7 @@
         <v>6.1910354326039916E+84</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="5"/>
         <v>99</v>
@@ -4821,7 +6105,7 @@
         <v>1.8542927372390468E+83</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="5"/>
         <v>100</v>
@@ -4856,19 +6140,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:F107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4876,7 +6160,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4892,7 +6176,7 @@
         <v>0.10304047459940825</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4908,13 +6192,13 @@
         <v>2.4048569665297769E-82</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E5">
         <f>SUM(E7:E108)</f>
         <v>4.1582514632585654E+81</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4931,7 +6215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4952,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>A7+1</f>
         <v>1</v>
@@ -4974,7 +6258,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ref="A9:A72" si="2">A8+1</f>
         <v>2</v>
@@ -4996,7 +6280,7 @@
         <v>98505000</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -5018,7 +6302,7 @@
         <v>212376779999.99997</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -5040,7 +6324,7 @@
         <v>253644243063750</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -5062,7 +6346,7 @@
         <v>1.909028030995008E+17</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -5084,7 +6368,7 @@
         <v>9.8235400761618088E+19</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -5106,7 +6390,7 @@
         <v>3.6559607516099338E+22</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -5128,7 +6412,7 @@
         <v>1.0253256176663553E+25</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -5150,7 +6434,7 @@
         <v>2.2359693469701844E+27</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -5172,7 +6456,7 @@
         <v>3.8863383219688792E+29</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -5194,7 +6478,7 @@
         <v>5.4922632484023009E+31</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -5216,7 +6500,7 @@
         <v>6.4156500070399345E+33</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -5238,7 +6522,7 @@
         <v>6.2805037702052465E+35</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -5260,7 +6544,7 @@
         <v>5.2131385631361802E+37</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -5282,7 +6566,7 @@
         <v>3.7061939758189493E+39</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -5304,7 +6588,7 @@
         <v>2.2765586042872273E+41</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -5326,7 +6610,7 @@
         <v>1.2175255981959633E+43</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -5348,7 +6632,7 @@
         <v>5.7077149108020049E+44</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -5370,7 +6654,7 @@
         <v>2.3596104523215837E+46</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -5392,7 +6676,7 @@
         <v>8.6485622103716827E+47</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -5414,7 +6698,7 @@
         <v>2.8240203135907539E+49</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -5436,7 +6720,7 @@
         <v>8.2509238129105045E+50</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -5458,7 +6742,7 @@
         <v>2.1655165636757928E+52</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -5480,7 +6764,7 @@
         <v>5.1239279941557958E+53</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -5502,7 +6786,7 @@
         <v>1.0966025735972456E+55</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -5524,7 +6808,7 @@
         <v>2.1291285175242393E+56</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -5546,7 +6830,7 @@
         <v>3.7605841963843747E+57</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -5568,7 +6852,7 @@
         <v>6.0577063540992746E+58</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -5590,7 +6874,7 @@
         <v>8.9201706883668798E+59</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -5612,7 +6896,7 @@
         <v>1.2033310258606913E+61</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -5634,7 +6918,7 @@
         <v>1.4900769206807714E+62</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -5656,7 +6940,7 @@
         <v>1.6968541964900873E+63</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -5678,7 +6962,7 @@
         <v>1.7800608210011732E+64</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -5700,7 +6984,7 @@
         <v>1.7229325714690398E+65</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -5722,7 +7006,7 @@
         <v>1.5409346328991649E+66</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -5744,7 +7028,7 @@
         <v>1.275194748290399E+67</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -5766,7 +7050,7 @@
         <v>9.7768035632257394E+67</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -5788,7 +7072,7 @@
         <v>6.9527697916042229E+68</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -5810,7 +7094,7 @@
         <v>4.5912965014380597E+69</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -5832,7 +7116,7 @@
         <v>2.818195183788949E+70</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -5854,7 +7138,7 @@
         <v>1.6094392483268247E+71</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -5876,7 +7160,7 @@
         <v>8.559041716867301E+71</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -5898,7 +7182,7 @@
         <v>4.242025867678316E+72</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -5920,7 +7204,7 @@
         <v>1.9608413992692767E+73</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -5942,7 +7226,7 @@
         <v>8.4592150439587322E+73</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -5964,7 +7248,7 @@
         <v>3.408072223523069E+74</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -5986,7 +7270,7 @@
         <v>1.2830026532737797E+75</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -6008,7 +7292,7 @@
         <v>4.5155679320299893E+75</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -6030,7 +7314,7 @@
         <v>1.4865076607565616E+76</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -6052,7 +7336,7 @@
         <v>4.579038198194509E+76</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -6074,7 +7358,7 @@
         <v>1.3203685692602388E+77</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -6096,7 +7380,7 @@
         <v>3.5650927973997839E+77</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -6118,7 +7402,7 @@
         <v>9.0161691821744406E+77</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -6140,7 +7424,7 @@
         <v>2.1362384389452449E+78</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -6162,7 +7446,7 @@
         <v>4.7428024317210793E+78</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -6184,7 +7468,7 @@
         <v>9.8682352892155748E+78</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -6206,7 +7490,7 @@
         <v>1.9244425605561663E+79</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -6228,7 +7512,7 @@
         <v>3.5176567493638135E+79</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -6250,7 +7534,7 @@
         <v>6.0268040371174317E+79</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -6272,7 +7556,7 @@
         <v>9.6780428162710781E+79</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -6294,7 +7578,7 @@
         <v>1.456518134133782E+80</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -6316,7 +7600,7 @@
         <v>2.0540543197552607E+80</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -6338,7 +7622,7 @@
         <v>2.7138979220953911E+80</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -6360,7 +7644,7 @@
         <v>3.3585811931400232E+80</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -6382,7 +7666,7 @@
         <v>3.891979531742853E+80</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" ref="A73:A107" si="9">A72+1</f>
         <v>66</v>
@@ -6404,7 +7688,7 @@
         <v>4.2216720127375995E+80</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="9"/>
         <v>67</v>
@@ -6426,7 +7710,7 @@
         <v>4.2846820427784641E+80</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="9"/>
         <v>68</v>
@@ -6448,7 +7732,7 @@
         <v>4.0669267919019537E+80</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="9"/>
         <v>69</v>
@@ -6470,7 +7754,7 @@
         <v>3.6082123018260542E+80</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="9"/>
         <v>70</v>
@@ -6492,7 +7776,7 @@
         <v>2.9903979913705312E+80</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="9"/>
         <v>71</v>
@@ -6514,7 +7798,7 @@
         <v>2.3135394101061461E+80</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="9"/>
         <v>72</v>
@@ -6536,7 +7820,7 @@
         <v>1.6695507201402584E+80</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="9"/>
         <v>73</v>
@@ -6558,7 +7842,7 @@
         <v>1.1228503998841599E+80</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="9"/>
         <v>74</v>
@@ -6580,7 +7864,7 @@
         <v>7.0311432089166969E+79</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="9"/>
         <v>75</v>
@@ -6602,7 +7886,7 @@
         <v>4.0949378048730865E+79</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="9"/>
         <v>76</v>
@@ -6624,7 +7908,7 @@
         <v>2.2154918005935572E+79</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="9"/>
         <v>77</v>
@@ -6646,7 +7930,7 @@
         <v>1.1120431098948243E+79</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="9"/>
         <v>78</v>
@@ -6668,7 +7952,7 @@
         <v>5.1708907920651915E+78</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="9"/>
         <v>79</v>
@@ -6690,7 +7974,7 @@
         <v>2.2237895987667011E+78</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="9"/>
         <v>80</v>
@@ -6712,7 +7996,7 @@
         <v>8.8291396413534172E+77</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="9"/>
         <v>81</v>
@@ -6734,7 +8018,7 @@
         <v>3.2296807101429971E+77</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="9"/>
         <v>82</v>
@@ -6756,7 +8040,7 @@
         <v>1.0860065564594458E+77</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="9"/>
         <v>83</v>
@@ -6778,7 +8062,7 @@
         <v>3.3483494352153603E+76</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="9"/>
         <v>84</v>
@@ -6800,7 +8084,7 @@
         <v>9.4385870559004541E+75</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="9"/>
         <v>85</v>
@@ -6822,7 +8106,7 @@
         <v>2.4246391108306196E+75</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="9"/>
         <v>86</v>
@@ -6844,7 +8128,7 @@
         <v>5.6550871635787204E+74</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="9"/>
         <v>87</v>
@@ -6866,7 +8150,7 @@
         <v>1.1924321724232565E+74</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="9"/>
         <v>88</v>
@@ -6888,7 +8172,7 @@
         <v>2.2619871659217E+73</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="9"/>
         <v>89</v>
@@ -6910,7 +8194,7 @@
         <v>3.8380390746102348E+72</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="9"/>
         <v>90</v>
@@ -6932,7 +8216,7 @@
         <v>5.7854885309865442E+71</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="9"/>
         <v>91</v>
@@ -6954,7 +8238,7 @@
         <v>7.6851073349658159E+70</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="9"/>
         <v>92</v>
@@ -6976,7 +8260,7 @@
         <v>8.9072427878088987E+69</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="9"/>
         <v>93</v>
@@ -6998,7 +8282,7 @@
         <v>8.8979740648247141E+68</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="9"/>
         <v>94</v>
@@ -7020,7 +8304,7 @@
         <v>7.5425334705225293E+67</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="9"/>
         <v>95</v>
@@ -7042,7 +8326,7 @@
         <v>5.3152922850441321E+66</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="9"/>
         <v>96</v>
@@ -7064,7 +8348,7 @@
         <v>3.0279171545661596E+65</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="9"/>
         <v>97</v>
@@ -7086,7 +8370,7 @@
         <v>1.3387326350297827E+64</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="9"/>
         <v>98</v>
@@ -7108,7 +8392,7 @@
         <v>4.3072509810933221E+62</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" si="9"/>
         <v>99</v>
@@ -7130,7 +8414,7 @@
         <v>8.9651994709013113E+60</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" si="9"/>
         <v>100</v>
@@ -7165,12 +8449,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
